--- a/qa/01.测试用例/其他/手机易用性测试结果.xlsx
+++ b/qa/01.测试用例/其他/手机易用性测试结果.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/qa/01.测试用例/其他/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="38740" yWindow="460" windowWidth="29420" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="107">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,6 +420,30 @@
   <si>
     <t>通天塔的层数选择界面左侧掉落按钮，放在那显的很突兀</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（已汇总）</t>
+  </si>
+  <si>
+    <t>（体验后改）</t>
+  </si>
+  <si>
+    <t>（基本汇总）</t>
+  </si>
+  <si>
+    <t>（等正式体验）</t>
+  </si>
+  <si>
+    <t>等配置</t>
+  </si>
+  <si>
+    <t>已经汇总</t>
+  </si>
+  <si>
+    <t>找程序</t>
+  </si>
+  <si>
+    <t>可能是机型问题，确认一下</t>
   </si>
 </sst>
 </file>
@@ -420,26 +454,26 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,6 +483,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +505,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -474,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -494,9 +534,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -512,7 +553,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -798,443 +839,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="82.125" customWidth="1"/>
-    <col min="3" max="3" width="62.25" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="82.1640625" customWidth="1"/>
+    <col min="4" max="4" width="62.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C27" s="1" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
         <v>32</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" t="s">
         <v>36</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" t="s">
         <v>38</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>43</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B51" t="s">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B52" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B54" t="s">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B55" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B56" t="s">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B57" t="s">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
         <v>61</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B61" t="s">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C62" s="1" t="s">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C63" s="1" t="s">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D63" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C64" s="1" t="s">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D64" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C65" s="1" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D65" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C66" s="1" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C69" s="1" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D69" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C70" s="1" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D70" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
         <v>58</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B75" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B76" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
         <v>97</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>98</v>
       </c>
     </row>
